--- a/data/trans_orig/P16A12-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{361554B2-E5A7-4B80-874A-BCD8D31A0266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DBA0DC6-6585-4B20-B45A-4E6AB92E12A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{01BD8626-E004-426B-876A-226BD9FF34C6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1043AB37-4BEC-49CF-A102-6DD64888236A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="575">
   <si>
     <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1699 +77,1693 @@
     <t>4,38%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>2,01%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
   </si>
   <si>
     <t>92,82%</t>
   </si>
   <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>93,51%</t>
   </si>
   <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
   </si>
 </sst>
 </file>
@@ -2181,7 +2175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636424B7-2393-4818-8C62-7F8BD90E486D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E275A01-7AE3-4D02-9A04-E8018C086C30}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2630,13 +2624,13 @@
         <v>24829</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -2645,13 +2639,13 @@
         <v>40047</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2660,13 @@
         <v>303629</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>310</v>
@@ -2681,13 +2675,13 @@
         <v>310583</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>604</v>
@@ -2696,13 +2690,13 @@
         <v>614211</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,7 +2752,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2770,13 +2764,13 @@
         <v>18332</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -2785,13 +2779,13 @@
         <v>17492</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -2800,13 +2794,13 @@
         <v>35825</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2815,13 @@
         <v>340339</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>365</v>
@@ -2836,13 +2830,13 @@
         <v>353964</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>707</v>
@@ -2851,13 +2845,13 @@
         <v>694302</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,7 +2907,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2925,13 +2919,13 @@
         <v>9684</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -2940,13 +2934,13 @@
         <v>18317</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -2955,13 +2949,13 @@
         <v>28001</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,13 +2970,13 @@
         <v>193624</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>181</v>
@@ -2991,13 +2985,13 @@
         <v>189351</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>376</v>
@@ -3006,13 +3000,13 @@
         <v>382975</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,7 +3062,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3080,13 +3074,13 @@
         <v>15295</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3095,13 +3089,13 @@
         <v>9535</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -3110,13 +3104,13 @@
         <v>24830</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3125,13 @@
         <v>255516</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>261</v>
@@ -3146,13 +3140,13 @@
         <v>268609</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>512</v>
@@ -3161,13 +3155,13 @@
         <v>524125</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,7 +3217,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3235,13 +3229,13 @@
         <v>41554</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -3250,13 +3244,13 @@
         <v>41035</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -3265,13 +3259,13 @@
         <v>82589</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3280,13 @@
         <v>573473</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>579</v>
@@ -3301,13 +3295,13 @@
         <v>597184</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="M23" s="7">
         <v>1133</v>
@@ -3316,13 +3310,13 @@
         <v>1170657</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,7 +3372,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3390,13 +3384,13 @@
         <v>44195</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -3405,13 +3399,13 @@
         <v>43462</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
@@ -3420,13 +3414,13 @@
         <v>87658</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3435,13 @@
         <v>698582</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>706</v>
@@ -3456,13 +3450,13 @@
         <v>740049</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1395</v>
@@ -3471,13 +3465,13 @@
         <v>1438630</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3539,13 @@
         <v>183028</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>200</v>
@@ -3560,13 +3554,13 @@
         <v>205215</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>391</v>
@@ -3575,13 +3569,13 @@
         <v>388244</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,16 +3587,16 @@
         <v>3022</v>
       </c>
       <c r="D29" s="7">
-        <v>3092497</v>
+        <v>3092498</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>3097</v>
@@ -3611,28 +3605,28 @@
         <v>3173983</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>6119</v>
       </c>
       <c r="N29" s="7">
-        <v>6266478</v>
+        <v>6266479</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,7 +3638,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3674,7 +3668,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3712,7 +3706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E0E80E-16F5-4FC8-B01E-4C9C4E480C49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DD2C81-F9DF-4BE8-A0AE-D707D1B84F16}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3976,7 +3970,7 @@
         <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>180</v>
@@ -4006,10 +4000,10 @@
         <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +4018,13 @@
         <v>470624</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="H8" s="7">
         <v>425</v>
@@ -4039,13 +4033,13 @@
         <v>465137</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>866</v>
@@ -4054,13 +4048,13 @@
         <v>935761</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4122,13 @@
         <v>33437</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -4143,13 +4137,13 @@
         <v>35128</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4158,13 +4152,13 @@
         <v>68565</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4173,13 @@
         <v>289679</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>285</v>
@@ -4194,13 +4188,13 @@
         <v>305892</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>572</v>
@@ -4271,7 +4265,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4301,10 +4295,10 @@
         <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -4313,13 +4307,13 @@
         <v>91702</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4328,13 @@
         <v>624548</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>572</v>
@@ -4349,13 +4343,13 @@
         <v>619182</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>1157</v>
@@ -4364,13 +4358,13 @@
         <v>1243729</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,7 +4420,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4438,13 +4432,13 @@
         <v>18939</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -4453,13 +4447,13 @@
         <v>25856</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -4468,13 +4462,13 @@
         <v>44795</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4483,13 @@
         <v>193679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -4504,13 +4498,13 @@
         <v>193735</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>366</v>
@@ -4519,13 +4513,13 @@
         <v>387414</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,7 +4575,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4593,13 +4587,13 @@
         <v>18480</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -4608,13 +4602,13 @@
         <v>29538</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -4623,13 +4617,13 @@
         <v>48018</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4638,13 @@
         <v>255501</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -4659,13 +4653,13 @@
         <v>249602</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="M20" s="7">
         <v>483</v>
@@ -4674,13 +4668,13 @@
         <v>505103</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,7 +4730,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4748,13 +4742,13 @@
         <v>54327</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -4763,13 +4757,13 @@
         <v>56478</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="M22" s="7">
         <v>104</v>
@@ -4778,13 +4772,13 @@
         <v>110805</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4793,13 @@
         <v>608461</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="H23" s="7">
         <v>583</v>
@@ -4814,13 +4808,13 @@
         <v>637375</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>203</v>
+        <v>270</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M23" s="7">
         <v>1150</v>
@@ -4829,13 +4823,13 @@
         <v>1245836</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,7 +4885,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4903,13 +4897,13 @@
         <v>48354</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -4918,13 +4912,13 @@
         <v>45320</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
@@ -4933,13 +4927,13 @@
         <v>93675</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4948,13 @@
         <v>728618</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="H26" s="7">
         <v>713</v>
@@ -4969,13 +4963,13 @@
         <v>776200</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>1385</v>
@@ -4984,13 +4978,13 @@
         <v>1504817</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>25</v>
+        <v>291</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5052,13 @@
         <v>250071</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H28" s="7">
         <v>283</v>
@@ -5073,13 +5067,13 @@
         <v>299986</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M28" s="7">
         <v>512</v>
@@ -5088,13 +5082,13 @@
         <v>550056</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>130</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5103,13 @@
         <v>3171108</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>295</v>
+        <v>170</v>
       </c>
       <c r="H29" s="7">
         <v>3005</v>
@@ -5124,28 +5118,28 @@
         <v>3247124</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="M29" s="7">
         <v>5979</v>
       </c>
       <c r="N29" s="7">
-        <v>6418232</v>
+        <v>6418233</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>137</v>
+        <v>305</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,7 +5181,7 @@
         <v>6491</v>
       </c>
       <c r="N30" s="7">
-        <v>6968288</v>
+        <v>6968289</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5225,7 +5219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137A0654-0859-4F4A-AFE4-1A648C91D27C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1703AB9B-5CB2-4682-8D6B-648E048A1AC4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5242,7 +5236,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5349,13 +5343,13 @@
         <v>19095</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>303</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5364,13 +5358,13 @@
         <v>10529</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -5379,13 +5373,13 @@
         <v>29624</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5394,13 @@
         <v>274666</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>311</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7">
         <v>267</v>
@@ -5415,13 +5409,13 @@
         <v>278174</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M5" s="7">
         <v>515</v>
@@ -5430,13 +5424,13 @@
         <v>552840</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>316</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5498,13 @@
         <v>34226</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -5519,13 +5513,13 @@
         <v>54198</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>81</v>
@@ -5534,13 +5528,13 @@
         <v>88424</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>322</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>323</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5549,13 @@
         <v>468349</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7">
         <v>437</v>
@@ -5570,13 +5564,13 @@
         <v>468886</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="M8" s="7">
         <v>878</v>
@@ -5585,13 +5579,13 @@
         <v>937235</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>328</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>329</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5653,13 @@
         <v>13591</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -5674,13 +5668,13 @@
         <v>21093</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -5689,13 +5683,13 @@
         <v>34684</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>338</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5704,13 @@
         <v>304974</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>313</v>
@@ -5725,13 +5719,13 @@
         <v>315216</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>632</v>
@@ -5740,13 +5734,13 @@
         <v>620190</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>347</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,7 +5796,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5814,13 +5808,13 @@
         <v>45807</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5829,13 +5823,13 @@
         <v>25987</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>354</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -5844,13 +5838,13 @@
         <v>71794</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5859,13 @@
         <v>324157</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -5880,13 +5874,13 @@
         <v>361296</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>641</v>
@@ -5895,13 +5889,13 @@
         <v>685453</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,7 +5951,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5969,13 +5963,13 @@
         <v>13041</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>109</v>
+        <v>369</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5984,13 +5978,13 @@
         <v>20570</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>363</v>
+        <v>165</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -5999,13 +5993,13 @@
         <v>33611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>34</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>37</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +6014,13 @@
         <v>198180</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>377</v>
       </c>
       <c r="H17" s="7">
         <v>203</v>
@@ -6035,13 +6029,13 @@
         <v>198017</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>370</v>
+        <v>172</v>
       </c>
       <c r="M17" s="7">
         <v>401</v>
@@ -6050,13 +6044,13 @@
         <v>396197</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,7 +6106,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6124,13 +6118,13 @@
         <v>17229</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -6139,13 +6133,13 @@
         <v>18366</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>376</v>
+        <v>148</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -6154,13 +6148,13 @@
         <v>35595</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6169,13 @@
         <v>245894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>247</v>
@@ -6190,13 +6184,13 @@
         <v>254749</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>386</v>
+        <v>158</v>
       </c>
       <c r="M20" s="7">
         <v>487</v>
@@ -6205,13 +6199,13 @@
         <v>500643</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,7 +6261,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6279,13 +6273,13 @@
         <v>71120</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="H22" s="7">
         <v>45</v>
@@ -6294,13 +6288,13 @@
         <v>54454</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>195</v>
+        <v>403</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -6309,13 +6303,13 @@
         <v>125573</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6324,13 @@
         <v>585438</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H23" s="7">
         <v>601</v>
@@ -6345,13 +6339,13 @@
         <v>636840</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>203</v>
+        <v>411</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="M23" s="7">
         <v>1117</v>
@@ -6360,13 +6354,13 @@
         <v>1222279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,7 +6416,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6434,13 +6428,13 @@
         <v>69698</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -6449,13 +6443,13 @@
         <v>72746</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>410</v>
+        <v>266</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="M25" s="7">
         <v>133</v>
@@ -6464,13 +6458,13 @@
         <v>142444</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>232</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6479,13 @@
         <v>708885</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="H26" s="7">
         <v>695</v>
@@ -6500,13 +6494,13 @@
         <v>753421</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>419</v>
+        <v>274</v>
       </c>
       <c r="M26" s="7">
         <v>1372</v>
@@ -6515,13 +6509,13 @@
         <v>1462306</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>240</v>
+        <v>411</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,13 +6583,13 @@
         <v>283807</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>423</v>
+        <v>53</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>424</v>
+        <v>296</v>
       </c>
       <c r="H28" s="7">
         <v>241</v>
@@ -6604,13 +6598,13 @@
         <v>277943</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>425</v>
+        <v>235</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="M28" s="7">
         <v>526</v>
@@ -6619,13 +6613,13 @@
         <v>561750</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>429</v>
+        <v>214</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,13 +6634,13 @@
         <v>3110543</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>432</v>
+        <v>302</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>433</v>
+        <v>61</v>
       </c>
       <c r="H29" s="7">
         <v>3097</v>
@@ -6655,13 +6649,13 @@
         <v>3266599</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>434</v>
+        <v>244</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="M29" s="7">
         <v>6043</v>
@@ -6670,13 +6664,13 @@
         <v>6377142</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>438</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>439</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,7 +6750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA8590A-32D2-4859-AA70-03C721435299}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DFFBA6-D55A-420B-B3E0-B69FC8E535B7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6773,7 +6767,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6880,13 +6874,13 @@
         <v>27941</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>442</v>
+        <v>297</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -6895,13 +6889,13 @@
         <v>20791</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>70</v>
+        <v>441</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M4" s="7">
         <v>88</v>
@@ -6910,13 +6904,13 @@
         <v>48732</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6931,13 +6925,13 @@
         <v>232357</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>451</v>
+        <v>304</v>
       </c>
       <c r="H5" s="7">
         <v>490</v>
@@ -6946,13 +6940,13 @@
         <v>250612</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M5" s="7">
         <v>781</v>
@@ -6961,13 +6955,13 @@
         <v>482968</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,13 +7029,13 @@
         <v>36306</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>149</v>
+        <v>455</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="H7" s="7">
         <v>65</v>
@@ -7050,13 +7044,13 @@
         <v>43401</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="M7" s="7">
         <v>97</v>
@@ -7065,13 +7059,13 @@
         <v>79707</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,13 +7080,13 @@
         <v>481921</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>463</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H8" s="7">
         <v>650</v>
@@ -7101,13 +7095,13 @@
         <v>509815</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>467</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7">
         <v>999</v>
@@ -7116,13 +7110,13 @@
         <v>991736</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>469</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,13 +7184,13 @@
         <v>37432</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>347</v>
+        <v>129</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -7205,13 +7199,13 @@
         <v>38861</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M10" s="7">
         <v>123</v>
@@ -7220,13 +7214,13 @@
         <v>76293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,13 +7235,13 @@
         <v>284808</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>467</v>
@@ -7256,13 +7250,13 @@
         <v>334423</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M11" s="7">
         <v>773</v>
@@ -7271,13 +7265,13 @@
         <v>619231</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7333,7 +7327,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7345,13 +7339,13 @@
         <v>28260</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -7360,13 +7354,13 @@
         <v>27580</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>488</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M13" s="7">
         <v>100</v>
@@ -7375,10 +7369,10 @@
         <v>55839</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>490</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>491</v>
@@ -7411,13 +7405,13 @@
         <v>400976</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>496</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>791</v>
@@ -7426,13 +7420,13 @@
         <v>694957</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>498</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,7 +7482,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7500,13 +7494,13 @@
         <v>20033</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
@@ -7515,13 +7509,13 @@
         <v>28005</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -7530,13 +7524,13 @@
         <v>48039</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>505</v>
+        <v>446</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,13 +7545,13 @@
         <v>176715</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H17" s="7">
         <v>423</v>
@@ -7566,13 +7560,13 @@
         <v>203898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M17" s="7">
         <v>669</v>
@@ -7581,13 +7575,13 @@
         <v>380612</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>514</v>
+        <v>453</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,7 +7637,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7655,13 +7649,13 @@
         <v>40453</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -7670,13 +7664,13 @@
         <v>29032</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="M19" s="7">
         <v>142</v>
@@ -7685,13 +7679,13 @@
         <v>69485</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7706,13 +7700,13 @@
         <v>236770</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="H20" s="7">
         <v>392</v>
@@ -7721,13 +7715,13 @@
         <v>246590</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="M20" s="7">
         <v>689</v>
@@ -7736,13 +7730,13 @@
         <v>483360</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7798,7 +7792,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7810,13 +7804,13 @@
         <v>53304</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -7825,13 +7819,13 @@
         <v>39208</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="M22" s="7">
         <v>129</v>
@@ -7840,13 +7834,13 @@
         <v>92512</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>542</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7861,13 +7855,13 @@
         <v>574450</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="H23" s="7">
         <v>895</v>
@@ -7876,13 +7870,13 @@
         <v>764995</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>496</v>
+        <v>540</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="M23" s="7">
         <v>1430</v>
@@ -7891,13 +7885,13 @@
         <v>1339445</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>549</v>
+        <v>466</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7953,7 +7947,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7965,13 +7959,13 @@
         <v>54274</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>552</v>
+        <v>51</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -7980,13 +7974,13 @@
         <v>50932</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>407</v>
+        <v>549</v>
       </c>
       <c r="M25" s="7">
         <v>146</v>
@@ -7995,13 +7989,13 @@
         <v>105206</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>285</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,13 +8010,13 @@
         <v>805154</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>560</v>
+        <v>60</v>
       </c>
       <c r="H26" s="7">
         <v>983</v>
@@ -8031,13 +8025,13 @@
         <v>814099</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>416</v>
+        <v>556</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="M26" s="7">
         <v>1676</v>
@@ -8046,13 +8040,13 @@
         <v>1619253</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>293</v>
+        <v>559</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8120,13 +8114,13 @@
         <v>298003</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H28" s="7">
         <v>522</v>
@@ -8135,13 +8129,13 @@
         <v>277810</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>302</v>
+        <v>563</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M28" s="7">
         <v>927</v>
@@ -8150,13 +8144,13 @@
         <v>575813</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8171,13 +8165,13 @@
         <v>3086155</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H29" s="7">
         <v>4838</v>
@@ -8186,28 +8180,28 @@
         <v>3525408</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>310</v>
+        <v>571</v>
       </c>
       <c r="M29" s="7">
         <v>7808</v>
       </c>
       <c r="N29" s="7">
-        <v>6611562</v>
+        <v>6611563</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8249,7 +8243,7 @@
         <v>8735</v>
       </c>
       <c r="N30" s="7">
-        <v>7187375</v>
+        <v>7187376</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A12-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DBA0DC6-6585-4B20-B45A-4E6AB92E12A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDD73A43-18D7-497C-A139-0B8858CD8DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1043AB37-4BEC-49CF-A102-6DD64888236A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BB80CF7F-6E07-4B63-B5B5-0AC8686538A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="553">
   <si>
     <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1458 +77,1440 @@
     <t>4,38%</t>
   </si>
   <si>
-    <t>2,55%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>92,33%</t>
   </si>
   <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>93,56%</t>
   </si>
   <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
+    <t>91,43%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
     <t>90,82%</t>
   </si>
   <si>
@@ -1538,9 +1520,6 @@
     <t>7,1%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
     <t>12,08%</t>
   </si>
   <si>
@@ -1556,9 +1535,6 @@
     <t>89,82%</t>
   </si>
   <si>
-    <t>86,21%</t>
-  </si>
-  <si>
     <t>92,9%</t>
   </si>
   <si>
@@ -1586,9 +1562,6 @@
     <t>10,53%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
     <t>13,34%</t>
   </si>
   <si>
@@ -1598,9 +1571,6 @@
     <t>10,6%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
     <t>85,41%</t>
   </si>
   <si>
@@ -1616,15 +1586,9 @@
     <t>86,66%</t>
   </si>
   <si>
-    <t>91,93%</t>
-  </si>
-  <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>85,32%</t>
-  </si>
-  <si>
     <t>89,4%</t>
   </si>
   <si>
@@ -1637,21 +1601,12 @@
     <t>11,05%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
     <t>3,01%</t>
   </si>
   <si>
     <t>6,42%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
     <t>91,51%</t>
   </si>
   <si>
@@ -1661,21 +1616,12 @@
     <t>93,55%</t>
   </si>
   <si>
-    <t>95,12%</t>
-  </si>
-  <si>
     <t>93,58%</t>
   </si>
   <si>
     <t>96,99%</t>
   </si>
   <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
     <t>6,32%</t>
   </si>
   <si>
@@ -1727,9 +1673,6 @@
     <t>7,98%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
     <t>6,49%</t>
   </si>
   <si>
@@ -1742,12 +1685,6 @@
     <t>7,35%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
     <t>92,02%</t>
   </si>
   <si>
@@ -1758,9 +1695,6 @@
   </si>
   <si>
     <t>91,99%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
   </si>
   <si>
     <t>92,65%</t>
@@ -2175,7 +2109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E275A01-7AE3-4D02-9A04-E8018C086C30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5BBE10-67CC-44E7-8B9A-E8D9A1D88F90}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3247,10 +3181,10 @@
         <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -3259,13 +3193,13 @@
         <v>82589</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3214,13 @@
         <v>573473</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>579</v>
@@ -3295,13 +3229,13 @@
         <v>597184</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1133</v>
@@ -3310,13 +3244,13 @@
         <v>1170657</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,7 +3306,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3384,13 +3318,13 @@
         <v>44195</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -3399,13 +3333,13 @@
         <v>43462</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
@@ -3414,13 +3348,13 @@
         <v>87658</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,13 +3369,13 @@
         <v>698582</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>706</v>
@@ -3450,13 +3384,13 @@
         <v>740049</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>1395</v>
@@ -3465,13 +3399,13 @@
         <v>1438630</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,7 +3506,7 @@
         <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>130</v>
@@ -3587,16 +3521,16 @@
         <v>3022</v>
       </c>
       <c r="D29" s="7">
-        <v>3092498</v>
+        <v>3092497</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>3097</v>
@@ -3605,13 +3539,13 @@
         <v>3173983</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M29" s="7">
         <v>6119</v>
@@ -3620,13 +3554,13 @@
         <v>6266479</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,7 +3572,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3682,7 +3616,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3706,7 +3640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DD2C81-F9DF-4BE8-A0AE-D707D1B84F16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F080DF5-2AFF-4155-B82D-0ECEAA310DB9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3723,7 +3657,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3828,39 +3762,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,39 +3807,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,39 +3852,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3901,13 @@
         <v>34903</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -3982,13 +3916,13 @@
         <v>57594</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>85</v>
@@ -3997,13 +3931,13 @@
         <v>92497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +3952,13 @@
         <v>470624</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>425</v>
@@ -4033,13 +3967,13 @@
         <v>465137</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>866</v>
@@ -4048,13 +3982,13 @@
         <v>935761</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>63</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4056,13 @@
         <v>33437</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -4137,13 +4071,13 @@
         <v>35128</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4152,13 +4086,13 @@
         <v>68565</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4107,13 @@
         <v>289679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>285</v>
@@ -4188,13 +4122,13 @@
         <v>305892</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="M11" s="7">
         <v>572</v>
@@ -4203,13 +4137,13 @@
         <v>595571</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4211,13 @@
         <v>41629</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4292,13 +4226,13 @@
         <v>50072</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -4307,13 +4241,13 @@
         <v>91702</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4262,13 @@
         <v>624548</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>572</v>
@@ -4343,13 +4277,13 @@
         <v>619182</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>1157</v>
@@ -4358,13 +4292,13 @@
         <v>1243729</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4366,13 @@
         <v>18939</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -4450,10 +4384,10 @@
         <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -4462,13 +4396,13 @@
         <v>44795</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4417,13 @@
         <v>193679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -4498,13 +4432,13 @@
         <v>193735</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>366</v>
@@ -4605,10 +4539,10 @@
         <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -4617,13 +4551,13 @@
         <v>48018</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4572,13 @@
         <v>255501</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -4653,13 +4587,13 @@
         <v>249602</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>83</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>483</v>
@@ -4668,13 +4602,13 @@
         <v>505103</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4676,13 @@
         <v>54327</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -4757,13 +4691,13 @@
         <v>56478</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>104</v>
@@ -4772,13 +4706,13 @@
         <v>110805</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4727,13 @@
         <v>608461</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="H23" s="7">
         <v>583</v>
@@ -4808,13 +4742,13 @@
         <v>637375</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M23" s="7">
         <v>1150</v>
@@ -4823,13 +4757,13 @@
         <v>1245836</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,7 +4819,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4897,13 +4831,13 @@
         <v>48354</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -4912,13 +4846,13 @@
         <v>45320</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
@@ -4927,13 +4861,13 @@
         <v>93675</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>282</v>
+        <v>89</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +4882,13 @@
         <v>728618</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H26" s="7">
         <v>713</v>
@@ -4963,13 +4897,13 @@
         <v>776200</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>288</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>289</v>
+        <v>24</v>
       </c>
       <c r="M26" s="7">
         <v>1385</v>
@@ -4978,13 +4912,13 @@
         <v>1504817</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>291</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>292</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,10 +4986,10 @@
         <v>250071</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>164</v>
+        <v>292</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>293</v>
@@ -5103,13 +5037,13 @@
         <v>3171108</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>170</v>
+        <v>302</v>
       </c>
       <c r="H29" s="7">
         <v>3005</v>
@@ -5118,28 +5052,28 @@
         <v>3247124</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M29" s="7">
         <v>5979</v>
       </c>
       <c r="N29" s="7">
-        <v>6418233</v>
+        <v>6418232</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,7 +5115,7 @@
         <v>6491</v>
       </c>
       <c r="N30" s="7">
-        <v>6968289</v>
+        <v>6968288</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5195,7 +5129,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5219,7 +5153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1703AB9B-5CB2-4682-8D6B-648E048A1AC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47E3848-9E46-4242-9566-1F0992A6D1FC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5236,7 +5170,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5343,13 +5277,13 @@
         <v>19095</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>311</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5358,13 +5292,13 @@
         <v>10529</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -5373,13 +5307,13 @@
         <v>29624</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>194</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5328,13 @@
         <v>274666</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>24</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>267</v>
@@ -5409,13 +5343,13 @@
         <v>278174</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M5" s="7">
         <v>515</v>
@@ -5424,13 +5358,13 @@
         <v>552840</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,10 +5435,10 @@
         <v>95</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -5513,13 +5447,13 @@
         <v>54198</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>324</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>81</v>
@@ -5528,13 +5462,13 @@
         <v>88424</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>95</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>56</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,10 +5486,10 @@
         <v>104</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>437</v>
@@ -5567,10 +5501,10 @@
         <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>330</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>878</v>
@@ -5579,13 +5513,13 @@
         <v>937235</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>64</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5587,13 @@
         <v>13591</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>333</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -5668,13 +5602,13 @@
         <v>21093</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -5683,13 +5617,13 @@
         <v>34684</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>338</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>340</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5638,13 @@
         <v>304974</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>343</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
         <v>313</v>
@@ -5719,13 +5653,13 @@
         <v>315216</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>632</v>
@@ -5734,13 +5668,13 @@
         <v>620190</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>347</v>
+        <v>177</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5742,13 @@
         <v>45807</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5823,13 +5757,13 @@
         <v>25987</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>353</v>
+        <v>116</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -5838,13 +5772,13 @@
         <v>71794</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5793,13 @@
         <v>324157</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -5874,7 +5808,7 @@
         <v>361296</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>124</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>363</v>
@@ -5969,7 +5903,7 @@
         <v>369</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>370</v>
+        <v>219</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5978,13 +5912,13 @@
         <v>20570</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>370</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -5993,13 +5927,13 @@
         <v>33611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,10 +5948,10 @@
         <v>198180</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>376</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>377</v>
@@ -6029,13 +5963,13 @@
         <v>198017</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>380</v>
       </c>
       <c r="M17" s="7">
         <v>401</v>
@@ -6044,13 +5978,13 @@
         <v>396197</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6052,13 @@
         <v>17229</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -6133,13 +6067,13 @@
         <v>18366</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>148</v>
+        <v>388</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>386</v>
+        <v>37</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -6148,13 +6082,13 @@
         <v>35595</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>388</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6103,13 @@
         <v>245894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>247</v>
@@ -6184,13 +6118,13 @@
         <v>254749</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>158</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>487</v>
@@ -6199,13 +6133,13 @@
         <v>500643</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>397</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,7 +6243,7 @@
         <v>405</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>406</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6258,13 @@
         <v>585438</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H23" s="7">
         <v>601</v>
@@ -6339,13 +6273,13 @@
         <v>636840</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M23" s="7">
         <v>1117</v>
@@ -6354,13 +6288,13 @@
         <v>1222279</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,7 +6350,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6428,13 +6362,13 @@
         <v>69698</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>417</v>
+        <v>75</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -6443,13 +6377,13 @@
         <v>72746</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>266</v>
+        <v>417</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M25" s="7">
         <v>133</v>
@@ -6458,13 +6392,13 @@
         <v>142444</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,13 +6413,13 @@
         <v>708885</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>424</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>425</v>
+        <v>83</v>
       </c>
       <c r="H26" s="7">
         <v>695</v>
@@ -6494,13 +6428,13 @@
         <v>753421</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M26" s="7">
         <v>1372</v>
@@ -6509,10 +6443,10 @@
         <v>1462306</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>429</v>
@@ -6589,7 +6523,7 @@
         <v>53</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>296</v>
+        <v>431</v>
       </c>
       <c r="H28" s="7">
         <v>241</v>
@@ -6598,13 +6532,13 @@
         <v>277943</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>235</v>
+        <v>432</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>431</v>
+        <v>332</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="M28" s="7">
         <v>526</v>
@@ -6613,13 +6547,13 @@
         <v>561750</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>214</v>
+        <v>420</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,10 +6568,10 @@
         <v>3110543</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>302</v>
+        <v>436</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>61</v>
@@ -6649,13 +6583,13 @@
         <v>3266599</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>244</v>
+        <v>437</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>435</v>
+        <v>339</v>
       </c>
       <c r="M29" s="7">
         <v>6043</v>
@@ -6664,13 +6598,13 @@
         <v>6377142</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>223</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,7 +6660,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6750,7 +6684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DFFBA6-D55A-420B-B3E0-B69FC8E535B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9EFDA2-0702-45B6-A5FD-DE0ADBD0F2B6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6767,7 +6701,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6874,13 +6808,13 @@
         <v>27941</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>297</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>440</v>
+        <v>203</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -6889,13 +6823,13 @@
         <v>20791</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M4" s="7">
         <v>88</v>
@@ -6904,13 +6838,13 @@
         <v>48732</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>446</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,10 +6862,10 @@
         <v>447</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>448</v>
+        <v>211</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H5" s="7">
         <v>490</v>
@@ -6940,13 +6874,13 @@
         <v>250612</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M5" s="7">
         <v>781</v>
@@ -6955,13 +6889,13 @@
         <v>482968</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,13 +6963,13 @@
         <v>36306</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>457</v>
+        <v>312</v>
       </c>
       <c r="H7" s="7">
         <v>65</v>
@@ -7044,13 +6978,13 @@
         <v>43401</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>267</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M7" s="7">
         <v>97</v>
@@ -7059,13 +6993,13 @@
         <v>79707</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,13 +7014,13 @@
         <v>481921</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H8" s="7">
         <v>650</v>
@@ -7095,13 +7029,13 @@
         <v>509815</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="M8" s="7">
         <v>999</v>
@@ -7110,13 +7044,13 @@
         <v>991736</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7184,13 +7118,13 @@
         <v>37432</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>129</v>
+        <v>466</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -7199,13 +7133,13 @@
         <v>38861</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>474</v>
+        <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M10" s="7">
         <v>123</v>
@@ -7214,13 +7148,13 @@
         <v>76293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>478</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7235,13 +7169,13 @@
         <v>284808</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>474</v>
       </c>
       <c r="H11" s="7">
         <v>467</v>
@@ -7250,13 +7184,13 @@
         <v>334423</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>483</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
         <v>773</v>
@@ -7265,13 +7199,13 @@
         <v>619231</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>485</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7339,13 +7273,13 @@
         <v>28260</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>488</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -7354,13 +7288,13 @@
         <v>27580</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>116</v>
+        <v>481</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>482</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="M13" s="7">
         <v>100</v>
@@ -7369,13 +7303,13 @@
         <v>55839</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7390,13 +7324,13 @@
         <v>293980</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>494</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>538</v>
@@ -7405,13 +7339,13 @@
         <v>400976</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>124</v>
+        <v>487</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>489</v>
       </c>
       <c r="M14" s="7">
         <v>791</v>
@@ -7420,13 +7354,13 @@
         <v>694957</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7494,13 +7428,13 @@
         <v>20033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>499</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
@@ -7509,13 +7443,13 @@
         <v>28005</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -7524,13 +7458,13 @@
         <v>48039</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>446</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,13 +7479,13 @@
         <v>176715</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>505</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="H17" s="7">
         <v>423</v>
@@ -7560,13 +7494,13 @@
         <v>203898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="M17" s="7">
         <v>669</v>
@@ -7575,13 +7509,13 @@
         <v>380612</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>453</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7649,13 +7583,13 @@
         <v>40453</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -7664,13 +7598,13 @@
         <v>29032</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>515</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="M19" s="7">
         <v>142</v>
@@ -7679,13 +7613,13 @@
         <v>69485</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>519</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7700,13 +7634,13 @@
         <v>236770</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="H20" s="7">
         <v>392</v>
@@ -7715,13 +7649,13 @@
         <v>246590</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>525</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>689</v>
@@ -7730,13 +7664,13 @@
         <v>483360</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>527</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,13 +7738,13 @@
         <v>53304</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -7819,13 +7753,13 @@
         <v>39208</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>532</v>
+        <v>163</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="M22" s="7">
         <v>129</v>
@@ -7834,13 +7768,13 @@
         <v>92512</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>535</v>
+        <v>341</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>536</v>
+        <v>182</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7855,13 +7789,13 @@
         <v>574450</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="H23" s="7">
         <v>895</v>
@@ -7870,13 +7804,13 @@
         <v>764995</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>540</v>
+        <v>172</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="M23" s="7">
         <v>1430</v>
@@ -7885,13 +7819,13 @@
         <v>1339445</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>543</v>
+        <v>347</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>544</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7947,7 +7881,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7959,13 +7893,13 @@
         <v>54274</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -7974,13 +7908,13 @@
         <v>50932</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="M25" s="7">
         <v>146</v>
@@ -7989,13 +7923,13 @@
         <v>105206</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8010,10 +7944,10 @@
         <v>805154</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>60</v>
@@ -8025,13 +7959,13 @@
         <v>814099</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="M26" s="7">
         <v>1676</v>
@@ -8040,13 +7974,13 @@
         <v>1619253</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8114,13 +8048,13 @@
         <v>298003</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>562</v>
+        <v>97</v>
       </c>
       <c r="H28" s="7">
         <v>522</v>
@@ -8129,13 +8063,13 @@
         <v>277810</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="M28" s="7">
         <v>927</v>
@@ -8144,13 +8078,13 @@
         <v>575813</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>567</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8165,13 +8099,13 @@
         <v>3086155</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>568</v>
+        <v>105</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="H29" s="7">
         <v>4838</v>
@@ -8180,13 +8114,13 @@
         <v>3525408</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="M29" s="7">
         <v>7808</v>
@@ -8195,13 +8129,13 @@
         <v>6611563</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>573</v>
+        <v>307</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8257,7 +8191,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A12-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDD73A43-18D7-497C-A139-0B8858CD8DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37B0855E-4295-4E53-A1FB-78F7FA74468F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BB80CF7F-6E07-4B63-B5B5-0AC8686538A9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{04CAEF6A-CB1D-41E0-9709-A245DDBA1943}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="577">
   <si>
     <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,1633 +71,1705 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>2,09%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>4,21%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>91,55%</t>
   </si>
   <si>
     <t>95,12%</t>
   </si>
   <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>88,79%</t>
   </si>
   <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
     <t>8,04%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
   <si>
     <t>91,96%</t>
   </si>
   <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>92,65%</t>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
 </sst>
 </file>
@@ -2109,7 +2181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5BBE10-67CC-44E7-8B9A-E8D9A1D88F90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CB5D8C-D0C1-42E8-949B-E3A3FC89203F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2558,13 +2630,13 @@
         <v>24829</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -2573,13 +2645,13 @@
         <v>40047</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2666,13 @@
         <v>303629</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>310</v>
@@ -2609,13 +2681,13 @@
         <v>310583</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>604</v>
@@ -2624,13 +2696,13 @@
         <v>614211</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,7 +2758,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2698,13 +2770,13 @@
         <v>18332</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -2713,13 +2785,13 @@
         <v>17492</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -2728,13 +2800,13 @@
         <v>35825</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2821,13 @@
         <v>340339</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>365</v>
@@ -2764,13 +2836,13 @@
         <v>353964</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>707</v>
@@ -2779,13 +2851,13 @@
         <v>694302</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,7 +2913,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2853,13 +2925,13 @@
         <v>9684</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -2868,13 +2940,13 @@
         <v>18317</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -2883,13 +2955,13 @@
         <v>28001</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2976,13 @@
         <v>193624</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>181</v>
@@ -2919,13 +2991,13 @@
         <v>189351</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>376</v>
@@ -2934,13 +3006,13 @@
         <v>382975</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,7 +3068,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3008,13 +3080,13 @@
         <v>15295</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3023,13 +3095,13 @@
         <v>9535</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -3038,13 +3110,13 @@
         <v>24830</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3131,13 @@
         <v>255516</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>261</v>
@@ -3074,13 +3146,13 @@
         <v>268609</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>512</v>
@@ -3089,13 +3161,13 @@
         <v>524125</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,7 +3223,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3163,13 +3235,13 @@
         <v>41554</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -3178,13 +3250,13 @@
         <v>41035</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -3193,13 +3265,13 @@
         <v>82589</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3286,13 @@
         <v>573473</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>579</v>
@@ -3229,13 +3301,13 @@
         <v>597184</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>1133</v>
@@ -3244,13 +3316,13 @@
         <v>1170657</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,7 +3378,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3318,13 +3390,13 @@
         <v>44195</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -3333,13 +3405,13 @@
         <v>43462</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
@@ -3348,13 +3420,13 @@
         <v>87658</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3441,13 @@
         <v>698582</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>706</v>
@@ -3384,13 +3456,13 @@
         <v>740049</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>1395</v>
@@ -3399,13 +3471,13 @@
         <v>1438630</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3545,13 @@
         <v>183028</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>200</v>
@@ -3488,13 +3560,13 @@
         <v>205215</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>391</v>
@@ -3503,13 +3575,13 @@
         <v>388244</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,13 +3596,13 @@
         <v>3092497</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>3097</v>
@@ -3539,28 +3611,28 @@
         <v>3173983</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>6119</v>
       </c>
       <c r="N29" s="7">
-        <v>6266479</v>
+        <v>6266478</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,7 +3674,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3616,7 +3688,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3640,7 +3712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F080DF5-2AFF-4155-B82D-0ECEAA310DB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2506A428-92D8-4ACA-93C7-349C6AFD6B52}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3657,7 +3729,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3762,39 +3834,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,39 +3879,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,39 +3924,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3973,13 @@
         <v>34903</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -3916,13 +3988,13 @@
         <v>57594</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>85</v>
@@ -3931,13 +4003,13 @@
         <v>92497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +4024,13 @@
         <v>470624</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="H8" s="7">
         <v>425</v>
@@ -3967,13 +4039,13 @@
         <v>465137</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>866</v>
@@ -3982,13 +4054,13 @@
         <v>935761</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4128,13 @@
         <v>33437</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -4071,13 +4143,13 @@
         <v>35128</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4086,13 +4158,13 @@
         <v>68565</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4179,13 @@
         <v>289679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>285</v>
@@ -4122,13 +4194,13 @@
         <v>305892</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>572</v>
@@ -4137,13 +4209,13 @@
         <v>595571</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,7 +4271,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4211,13 +4283,13 @@
         <v>41629</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4226,13 +4298,13 @@
         <v>50072</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -4241,13 +4313,13 @@
         <v>91702</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,13 +4334,13 @@
         <v>624548</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>572</v>
@@ -4277,13 +4349,13 @@
         <v>619182</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>46</v>
       </c>
       <c r="M14" s="7">
         <v>1157</v>
@@ -4292,13 +4364,13 @@
         <v>1243729</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,7 +4426,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4366,13 +4438,13 @@
         <v>18939</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>129</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -4381,13 +4453,13 @@
         <v>25856</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>132</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -4396,13 +4468,13 @@
         <v>44795</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4489,13 @@
         <v>193679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -4432,13 +4504,13 @@
         <v>193735</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="M17" s="7">
         <v>366</v>
@@ -4447,13 +4519,13 @@
         <v>387414</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,7 +4581,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4521,13 +4593,13 @@
         <v>18480</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -4536,13 +4608,13 @@
         <v>29538</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -4551,13 +4623,13 @@
         <v>48018</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4644,13 @@
         <v>255501</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -4587,13 +4659,13 @@
         <v>249602</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="M20" s="7">
         <v>483</v>
@@ -4602,13 +4674,13 @@
         <v>505103</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,7 +4736,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4676,13 +4748,13 @@
         <v>54327</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -4691,13 +4763,13 @@
         <v>56478</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>58</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="M22" s="7">
         <v>104</v>
@@ -4706,13 +4778,13 @@
         <v>110805</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4799,13 @@
         <v>608461</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>583</v>
@@ -4742,13 +4814,13 @@
         <v>637375</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>274</v>
+        <v>65</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>1150</v>
@@ -4757,13 +4829,13 @@
         <v>1245836</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,7 +4891,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4831,13 +4903,13 @@
         <v>48354</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -4846,13 +4918,13 @@
         <v>45320</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>14</v>
+        <v>273</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
@@ -4861,13 +4933,13 @@
         <v>93675</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>89</v>
+        <v>276</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>284</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4954,13 @@
         <v>728618</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H26" s="7">
         <v>713</v>
@@ -4897,13 +4969,13 @@
         <v>776200</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>24</v>
+        <v>282</v>
       </c>
       <c r="M26" s="7">
         <v>1385</v>
@@ -4912,13 +4984,13 @@
         <v>1504817</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>290</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>98</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +5058,13 @@
         <v>250071</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H28" s="7">
         <v>283</v>
@@ -5001,13 +5073,13 @@
         <v>299986</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M28" s="7">
         <v>512</v>
@@ -5016,13 +5088,13 @@
         <v>550056</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>299</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5109,13 @@
         <v>3171108</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H29" s="7">
         <v>3005</v>
@@ -5052,13 +5124,13 @@
         <v>3247124</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="M29" s="7">
         <v>5979</v>
@@ -5067,13 +5139,13 @@
         <v>6418232</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>307</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,7 +5201,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5153,7 +5225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47E3848-9E46-4242-9566-1F0992A6D1FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742AE81F-583D-44F0-BDD3-C3671CB6D5FE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5170,7 +5242,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5277,13 +5349,13 @@
         <v>19095</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5292,13 +5364,13 @@
         <v>10529</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -5307,13 +5379,13 @@
         <v>29624</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,13 +5400,13 @@
         <v>274666</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H5" s="7">
         <v>267</v>
@@ -5343,13 +5415,13 @@
         <v>278174</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>515</v>
@@ -5358,13 +5430,13 @@
         <v>552840</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5504,13 @@
         <v>34226</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -5447,13 +5519,13 @@
         <v>54198</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M7" s="7">
         <v>81</v>
@@ -5462,13 +5534,13 @@
         <v>88424</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5555,13 @@
         <v>468349</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H8" s="7">
         <v>437</v>
@@ -5498,13 +5570,13 @@
         <v>468886</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>878</v>
@@ -5513,13 +5585,13 @@
         <v>937235</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5659,13 @@
         <v>13591</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -5602,13 +5674,13 @@
         <v>21093</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -5617,13 +5689,13 @@
         <v>34684</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,13 +5710,13 @@
         <v>304974</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>340</v>
       </c>
       <c r="H11" s="7">
         <v>313</v>
@@ -5653,13 +5725,13 @@
         <v>315216</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="M11" s="7">
         <v>632</v>
@@ -5668,13 +5740,13 @@
         <v>620190</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,7 +5802,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5742,13 +5814,13 @@
         <v>45807</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5757,13 +5829,13 @@
         <v>25987</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>116</v>
+        <v>332</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -5772,13 +5844,13 @@
         <v>71794</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5865,13 @@
         <v>324157</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -5808,13 +5880,13 @@
         <v>361296</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>124</v>
+        <v>339</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>641</v>
@@ -5823,13 +5895,13 @@
         <v>685453</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,7 +5957,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5897,13 +5969,13 @@
         <v>13041</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>369</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>219</v>
+        <v>361</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5912,13 +5984,13 @@
         <v>20570</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -5927,13 +5999,13 @@
         <v>33611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>373</v>
+        <v>34</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>375</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +6020,13 @@
         <v>198180</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>367</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>377</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>203</v>
@@ -5963,13 +6035,13 @@
         <v>198017</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="M17" s="7">
         <v>401</v>
@@ -5978,13 +6050,13 @@
         <v>396197</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>381</v>
+        <v>42</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,7 +6112,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6052,13 +6124,13 @@
         <v>17229</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -6067,13 +6139,13 @@
         <v>18366</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>377</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -6082,13 +6154,13 @@
         <v>35595</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>379</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6103,13 +6175,13 @@
         <v>245894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
         <v>247</v>
@@ -6118,13 +6190,13 @@
         <v>254749</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="M20" s="7">
         <v>487</v>
@@ -6133,13 +6205,13 @@
         <v>500643</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,7 +6267,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6207,13 +6279,13 @@
         <v>71120</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H22" s="7">
         <v>45</v>
@@ -6222,13 +6294,13 @@
         <v>54454</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>403</v>
+        <v>195</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -6237,13 +6309,13 @@
         <v>125573</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>184</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6258,13 +6330,13 @@
         <v>585438</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="H23" s="7">
         <v>601</v>
@@ -6273,13 +6345,13 @@
         <v>636840</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>410</v>
+        <v>203</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="M23" s="7">
         <v>1117</v>
@@ -6288,13 +6360,13 @@
         <v>1222279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>193</v>
+        <v>404</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,7 +6422,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6362,13 +6434,13 @@
         <v>69698</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>75</v>
+        <v>407</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -6377,13 +6449,13 @@
         <v>72746</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="M25" s="7">
         <v>133</v>
@@ -6392,13 +6464,13 @@
         <v>142444</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>421</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6413,13 +6485,13 @@
         <v>708885</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>83</v>
+        <v>416</v>
       </c>
       <c r="H26" s="7">
         <v>695</v>
@@ -6428,13 +6500,13 @@
         <v>753421</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="M26" s="7">
         <v>1372</v>
@@ -6443,13 +6515,13 @@
         <v>1462306</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>428</v>
+        <v>240</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6517,13 +6589,13 @@
         <v>283807</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>53</v>
+        <v>423</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="H28" s="7">
         <v>241</v>
@@ -6532,13 +6604,13 @@
         <v>277943</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>332</v>
+        <v>426</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M28" s="7">
         <v>526</v>
@@ -6547,13 +6619,13 @@
         <v>561750</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,13 +6640,13 @@
         <v>3110543</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>61</v>
+        <v>433</v>
       </c>
       <c r="H29" s="7">
         <v>3097</v>
@@ -6583,13 +6655,13 @@
         <v>3266599</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="M29" s="7">
         <v>6043</v>
@@ -6598,13 +6670,13 @@
         <v>6377142</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6660,7 +6732,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6684,7 +6756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9EFDA2-0702-45B6-A5FD-DE0ADBD0F2B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E60753E-288F-4B0D-A60E-BAE2E57B5358}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6811,10 +6883,10 @@
         <v>441</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>297</v>
+        <v>442</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>203</v>
+        <v>443</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -6823,13 +6895,13 @@
         <v>20791</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>442</v>
+        <v>70</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M4" s="7">
         <v>88</v>
@@ -6838,13 +6910,13 @@
         <v>48732</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>253</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,13 +6931,13 @@
         <v>232357</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>211</v>
+        <v>450</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>306</v>
+        <v>451</v>
       </c>
       <c r="H5" s="7">
         <v>490</v>
@@ -6874,13 +6946,13 @@
         <v>250612</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>448</v>
+        <v>78</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M5" s="7">
         <v>781</v>
@@ -6889,13 +6961,13 @@
         <v>482968</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>455</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6963,13 +7035,13 @@
         <v>36306</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>453</v>
+        <v>149</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>312</v>
+        <v>458</v>
       </c>
       <c r="H7" s="7">
         <v>65</v>
@@ -6978,13 +7050,13 @@
         <v>43401</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>267</v>
+        <v>460</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="M7" s="7">
         <v>97</v>
@@ -6993,13 +7065,13 @@
         <v>79707</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>458</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +7086,13 @@
         <v>481921</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>459</v>
+        <v>157</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>320</v>
+        <v>463</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H8" s="7">
         <v>650</v>
@@ -7029,13 +7101,13 @@
         <v>509815</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>276</v>
+        <v>467</v>
       </c>
       <c r="M8" s="7">
         <v>999</v>
@@ -7044,13 +7116,13 @@
         <v>991736</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>463</v>
+        <v>355</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7118,13 +7190,13 @@
         <v>37432</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>466</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -7133,13 +7205,13 @@
         <v>38861</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>472</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M10" s="7">
         <v>123</v>
@@ -7148,13 +7220,13 @@
         <v>76293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7169,13 +7241,13 @@
         <v>284808</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>474</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>467</v>
@@ -7184,13 +7256,13 @@
         <v>334423</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>481</v>
       </c>
       <c r="M11" s="7">
         <v>773</v>
@@ -7199,13 +7271,13 @@
         <v>619231</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>483</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,7 +7333,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7273,13 +7345,13 @@
         <v>28260</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>486</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -7288,13 +7360,13 @@
         <v>27580</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>481</v>
+        <v>166</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="M13" s="7">
         <v>100</v>
@@ -7303,13 +7375,13 @@
         <v>55839</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>490</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,13 +7396,13 @@
         <v>293980</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>494</v>
       </c>
       <c r="H14" s="7">
         <v>538</v>
@@ -7339,13 +7411,13 @@
         <v>400976</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>487</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="M14" s="7">
         <v>791</v>
@@ -7354,13 +7426,13 @@
         <v>694957</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7416,7 +7488,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7428,13 +7500,13 @@
         <v>20033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
@@ -7443,13 +7515,13 @@
         <v>28005</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -7458,13 +7530,13 @@
         <v>48039</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>505</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7479,13 +7551,13 @@
         <v>176715</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>509</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="H17" s="7">
         <v>423</v>
@@ -7494,13 +7566,13 @@
         <v>203898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="M17" s="7">
         <v>669</v>
@@ -7509,13 +7581,13 @@
         <v>380612</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>514</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7571,7 +7643,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7583,13 +7655,13 @@
         <v>40453</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -7598,13 +7670,13 @@
         <v>29032</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>521</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="M19" s="7">
         <v>142</v>
@@ -7613,13 +7685,13 @@
         <v>69485</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>250</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7634,13 +7706,13 @@
         <v>236770</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="H20" s="7">
         <v>392</v>
@@ -7649,13 +7721,13 @@
         <v>246590</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>531</v>
       </c>
       <c r="M20" s="7">
         <v>689</v>
@@ -7664,13 +7736,13 @@
         <v>483360</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>258</v>
+        <v>533</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,7 +7798,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7738,13 +7810,13 @@
         <v>53304</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -7753,13 +7825,13 @@
         <v>39208</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>163</v>
+        <v>488</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="M22" s="7">
         <v>129</v>
@@ -7768,13 +7840,13 @@
         <v>92512</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>341</v>
+        <v>540</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>182</v>
+        <v>541</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>455</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7789,13 +7861,13 @@
         <v>574450</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="H23" s="7">
         <v>895</v>
@@ -7804,13 +7876,13 @@
         <v>764995</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>172</v>
+        <v>496</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="M23" s="7">
         <v>1430</v>
@@ -7819,13 +7891,13 @@
         <v>1339445</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>347</v>
+        <v>548</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>461</v>
+        <v>549</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>192</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7881,7 +7953,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7893,13 +7965,13 @@
         <v>54274</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>51</v>
+        <v>552</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -7908,13 +7980,13 @@
         <v>50932</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>531</v>
+        <v>407</v>
       </c>
       <c r="M25" s="7">
         <v>146</v>
@@ -7923,13 +7995,13 @@
         <v>105206</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>534</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7944,13 +8016,13 @@
         <v>805154</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>60</v>
+        <v>560</v>
       </c>
       <c r="H26" s="7">
         <v>983</v>
@@ -7959,13 +8031,13 @@
         <v>814099</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>538</v>
+        <v>416</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="M26" s="7">
         <v>1676</v>
@@ -7974,13 +8046,13 @@
         <v>1619253</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>541</v>
+        <v>293</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,13 +8120,13 @@
         <v>298003</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>97</v>
+        <v>566</v>
       </c>
       <c r="H28" s="7">
         <v>522</v>
@@ -8063,13 +8135,13 @@
         <v>277810</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>544</v>
+        <v>302</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="M28" s="7">
         <v>927</v>
@@ -8078,13 +8150,13 @@
         <v>575813</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>299</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,13 +8171,13 @@
         <v>3086155</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>105</v>
+        <v>571</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="H29" s="7">
         <v>4838</v>
@@ -8114,28 +8186,28 @@
         <v>3525408</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>550</v>
+        <v>310</v>
       </c>
       <c r="M29" s="7">
         <v>7808</v>
       </c>
       <c r="N29" s="7">
-        <v>6611563</v>
+        <v>6611562</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>307</v>
+        <v>575</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8177,7 +8249,7 @@
         <v>8735</v>
       </c>
       <c r="N30" s="7">
-        <v>7187376</v>
+        <v>7187375</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8191,7 +8263,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A12-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37B0855E-4295-4E53-A1FB-78F7FA74468F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0E2D63D-8E91-4D21-B039-B632D5415267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{04CAEF6A-CB1D-41E0-9709-A245DDBA1943}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3761C839-4011-4478-AE5C-0B3CD7C816B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="578">
   <si>
     <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -575,7 +575,52 @@
     <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>6,9%</t>
@@ -674,52 +719,52 @@
     <t>91,82%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>8,91%</t>
@@ -950,9 +995,6 @@
     <t>6,5%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
     <t>3,65%</t>
   </si>
   <si>
@@ -974,9 +1016,6 @@
     <t>93,5%</t>
   </si>
   <si>
-    <t>96,02%</t>
-  </si>
-  <si>
     <t>96,35%</t>
   </si>
   <si>
@@ -1160,9 +1199,6 @@
     <t>6,55%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
     <t>9,88%</t>
   </si>
   <si>
@@ -1190,9 +1226,6 @@
     <t>90,12%</t>
   </si>
   <si>
-    <t>95,77%</t>
-  </si>
-  <si>
     <t>93,28%</t>
   </si>
   <si>
@@ -1274,9 +1307,6 @@
     <t>6,93%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
     <t>8,88%</t>
   </si>
   <si>
@@ -1295,9 +1325,6 @@
     <t>91,19%</t>
   </si>
   <si>
-    <t>88,76%</t>
-  </si>
-  <si>
     <t>93,07%</t>
   </si>
   <si>
@@ -1364,412 +1391,388 @@
     <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>95,12%</t>
   </si>
   <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
   </si>
   <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>94,11%</t>
   </si>
   <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
   </si>
 </sst>
 </file>
@@ -2181,7 +2184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CB5D8C-D0C1-42E8-949B-E3A3FC89203F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6C3533-40DB-457C-9C14-AB87D35CFBC5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3608,7 +3611,7 @@
         <v>3097</v>
       </c>
       <c r="I29" s="7">
-        <v>3173983</v>
+        <v>3173982</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>170</v>
@@ -3659,7 +3662,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3712,7 +3715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2506A428-92D8-4ACA-93C7-349C6AFD6B52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0314E321-06B1-4A7A-BBBC-0A7A01B8B9DC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3830,43 +3833,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D4" s="7">
+        <v>19210</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I4" s="7">
+        <v>18450</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="N4" s="7">
+        <v>37659</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,43 +3884,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>262</v>
+      </c>
+      <c r="D5" s="7">
+        <v>272985</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>233</v>
+      </c>
+      <c r="I5" s="7">
+        <v>262830</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>495</v>
+      </c>
+      <c r="N5" s="7">
+        <v>535815</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,43 +3935,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="D6" s="7">
+        <v>292195</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>251</v>
+      </c>
+      <c r="I6" s="7">
+        <v>281280</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>530</v>
+      </c>
+      <c r="N6" s="7">
+        <v>573474</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3994,13 @@
         <v>34903</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -3988,13 +4009,13 @@
         <v>57594</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="M7" s="7">
         <v>85</v>
@@ -4003,13 +4024,13 @@
         <v>92497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,10 +4045,10 @@
         <v>470624</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>66</v>
@@ -4039,13 +4060,13 @@
         <v>465137</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>866</v>
@@ -4054,13 +4075,13 @@
         <v>935761</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4149,13 @@
         <v>33437</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -4143,13 +4164,13 @@
         <v>35128</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4158,13 +4179,13 @@
         <v>68565</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4200,13 @@
         <v>289679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="H11" s="7">
         <v>285</v>
@@ -4194,13 +4215,13 @@
         <v>305892</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>572</v>
@@ -4209,13 +4230,13 @@
         <v>595571</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,49 +4298,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>41629</v>
+        <v>22420</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="H13" s="7">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>50072</v>
+        <v>31623</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>91702</v>
+        <v>54042</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,49 +4349,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>585</v>
+        <v>323</v>
       </c>
       <c r="D14" s="7">
-        <v>624548</v>
+        <v>351562</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="H14" s="7">
-        <v>572</v>
+        <v>339</v>
       </c>
       <c r="I14" s="7">
-        <v>619182</v>
+        <v>356351</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>46</v>
       </c>
       <c r="M14" s="7">
-        <v>1157</v>
+        <v>662</v>
       </c>
       <c r="N14" s="7">
-        <v>1243729</v>
+        <v>707914</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,10 +4400,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>623</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>666177</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4394,10 +4415,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>621</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>669254</v>
+        <v>387974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4409,10 +4430,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1244</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1335431</v>
+        <v>761956</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4438,13 +4459,13 @@
         <v>18939</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -4453,13 +4474,13 @@
         <v>25856</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>132</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -4468,13 +4489,13 @@
         <v>44795</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4510,13 @@
         <v>193679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -4504,10 +4525,10 @@
         <v>193735</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>139</v>
@@ -4519,13 +4540,13 @@
         <v>387414</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4614,13 @@
         <v>18480</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -4608,13 +4629,13 @@
         <v>29538</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -4623,13 +4644,13 @@
         <v>48018</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4665,13 @@
         <v>255501</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -4659,10 +4680,10 @@
         <v>249602</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>25</v>
@@ -4674,13 +4695,13 @@
         <v>505103</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4769,13 @@
         <v>54327</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -4766,10 +4787,10 @@
         <v>58</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="M22" s="7">
         <v>104</v>
@@ -4778,13 +4799,13 @@
         <v>110805</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4820,13 @@
         <v>608461</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>583</v>
@@ -4817,10 +4838,10 @@
         <v>65</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>1150</v>
@@ -4829,13 +4850,13 @@
         <v>1245836</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4924,13 @@
         <v>48354</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -4918,13 +4939,13 @@
         <v>45320</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
@@ -4933,10 +4954,10 @@
         <v>93675</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>16</v>
@@ -4954,13 +4975,13 @@
         <v>728618</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>713</v>
@@ -4969,13 +4990,13 @@
         <v>776200</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>1385</v>
@@ -4984,13 +5005,13 @@
         <v>1504817</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5079,13 @@
         <v>250071</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="H28" s="7">
         <v>283</v>
@@ -5073,13 +5094,13 @@
         <v>299986</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="M28" s="7">
         <v>512</v>
@@ -5088,10 +5109,10 @@
         <v>550056</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>130</v>
@@ -5109,13 +5130,13 @@
         <v>3171108</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="H29" s="7">
         <v>3005</v>
@@ -5124,28 +5145,28 @@
         <v>3247124</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="M29" s="7">
         <v>5979</v>
       </c>
       <c r="N29" s="7">
-        <v>6418232</v>
+        <v>6418233</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>137</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,7 +5208,7 @@
         <v>6491</v>
       </c>
       <c r="N30" s="7">
-        <v>6968288</v>
+        <v>6968289</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5225,7 +5246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742AE81F-583D-44F0-BDD3-C3671CB6D5FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579D13C4-A603-4AA7-8502-F9D75F06C182}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5242,7 +5263,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5349,13 +5370,13 @@
         <v>19095</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>303</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5364,13 +5385,13 @@
         <v>10529</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -5379,13 +5400,13 @@
         <v>29624</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5421,13 @@
         <v>274666</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="H5" s="7">
         <v>267</v>
@@ -5415,13 +5436,13 @@
         <v>278174</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>515</v>
@@ -5430,13 +5451,13 @@
         <v>552840</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,10 +5528,10 @@
         <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -5519,13 +5540,13 @@
         <v>54198</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>81</v>
@@ -5534,13 +5555,13 @@
         <v>88424</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,10 +5579,10 @@
         <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="H8" s="7">
         <v>437</v>
@@ -5570,13 +5591,13 @@
         <v>468886</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>878</v>
@@ -5585,13 +5606,13 @@
         <v>937235</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5680,13 @@
         <v>13591</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -5674,13 +5695,13 @@
         <v>21093</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -5692,10 +5713,10 @@
         <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5731,13 @@
         <v>304974</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>313</v>
@@ -5725,13 +5746,13 @@
         <v>315216</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>632</v>
@@ -5743,10 +5764,10 @@
         <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5835,13 @@
         <v>45807</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5829,13 +5850,13 @@
         <v>25987</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -5844,13 +5865,13 @@
         <v>71794</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5886,13 @@
         <v>324157</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -5880,13 +5901,13 @@
         <v>361296</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>641</v>
@@ -5895,13 +5916,13 @@
         <v>685453</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5990,13 @@
         <v>13041</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5984,13 +6005,13 @@
         <v>20570</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -6002,7 +6023,7 @@
         <v>34</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>37</v>
@@ -6020,10 +6041,10 @@
         <v>198180</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>118</v>
@@ -6035,13 +6056,13 @@
         <v>198017</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="M17" s="7">
         <v>401</v>
@@ -6056,7 +6077,7 @@
         <v>45</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,13 +6145,13 @@
         <v>17229</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>373</v>
+        <v>182</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -6139,13 +6160,13 @@
         <v>18366</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -6154,13 +6175,13 @@
         <v>35595</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6196,13 @@
         <v>245894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>383</v>
+        <v>191</v>
       </c>
       <c r="H20" s="7">
         <v>247</v>
@@ -6190,13 +6211,13 @@
         <v>254749</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="M20" s="7">
         <v>487</v>
@@ -6205,13 +6226,13 @@
         <v>500643</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6300,13 @@
         <v>71120</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="H22" s="7">
         <v>45</v>
@@ -6294,13 +6315,13 @@
         <v>54454</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -6309,13 +6330,13 @@
         <v>125573</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6351,13 @@
         <v>585438</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="H23" s="7">
         <v>601</v>
@@ -6345,13 +6366,13 @@
         <v>636840</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="M23" s="7">
         <v>1117</v>
@@ -6360,13 +6381,13 @@
         <v>1222279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,13 +6455,13 @@
         <v>69698</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -6449,13 +6470,13 @@
         <v>72746</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>411</v>
+        <v>230</v>
       </c>
       <c r="M25" s="7">
         <v>133</v>
@@ -6464,13 +6485,13 @@
         <v>142444</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6506,13 @@
         <v>708885</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="H26" s="7">
         <v>695</v>
@@ -6500,13 +6521,13 @@
         <v>753421</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>418</v>
+        <v>238</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M26" s="7">
         <v>1372</v>
@@ -6515,13 +6536,13 @@
         <v>1462306</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,13 +6610,13 @@
         <v>283807</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="H28" s="7">
         <v>241</v>
@@ -6604,13 +6625,13 @@
         <v>277943</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="M28" s="7">
         <v>526</v>
@@ -6619,13 +6640,13 @@
         <v>561750</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,13 +6661,13 @@
         <v>3110543</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="H29" s="7">
         <v>3097</v>
@@ -6655,13 +6676,13 @@
         <v>3266599</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="M29" s="7">
         <v>6043</v>
@@ -6670,13 +6691,13 @@
         <v>6377142</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,7 +6777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E60753E-288F-4B0D-A60E-BAE2E57B5358}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632B1524-4BB6-493A-812A-E27DE3F8611E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6773,7 +6794,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6877,46 +6898,46 @@
         <v>40</v>
       </c>
       <c r="D4" s="7">
-        <v>27941</v>
+        <v>30724</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>441</v>
+        <v>374</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
       </c>
       <c r="I4" s="7">
-        <v>20791</v>
+        <v>21291</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>70</v>
+        <v>451</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="M4" s="7">
         <v>88</v>
       </c>
       <c r="N4" s="7">
-        <v>48732</v>
+        <v>52016</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,46 +6949,46 @@
         <v>291</v>
       </c>
       <c r="D5" s="7">
-        <v>232357</v>
+        <v>280719</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>449</v>
+        <v>380</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="H5" s="7">
         <v>490</v>
       </c>
       <c r="I5" s="7">
-        <v>250612</v>
+        <v>268344</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>78</v>
+        <v>458</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="M5" s="7">
         <v>781</v>
       </c>
       <c r="N5" s="7">
-        <v>482968</v>
+        <v>549061</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,7 +7000,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6994,7 +7015,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7009,7 +7030,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7032,46 +7053,46 @@
         <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>36306</v>
+        <v>34421</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>149</v>
+        <v>464</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="H7" s="7">
         <v>65</v>
       </c>
       <c r="I7" s="7">
-        <v>43401</v>
+        <v>39507</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="M7" s="7">
         <v>97</v>
       </c>
       <c r="N7" s="7">
-        <v>79707</v>
+        <v>73929</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7083,46 +7104,46 @@
         <v>349</v>
       </c>
       <c r="D8" s="7">
-        <v>481921</v>
+        <v>482972</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>473</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="H8" s="7">
         <v>650</v>
       </c>
       <c r="I8" s="7">
-        <v>509815</v>
+        <v>474218</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="M8" s="7">
         <v>999</v>
       </c>
       <c r="N8" s="7">
-        <v>991736</v>
+        <v>957189</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>480</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7134,7 +7155,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7149,7 +7170,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553216</v>
+        <v>513725</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7164,7 +7185,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071443</v>
+        <v>1031118</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7187,46 +7208,46 @@
         <v>54</v>
       </c>
       <c r="D10" s="7">
-        <v>37432</v>
+        <v>35790</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>347</v>
+        <v>472</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
       </c>
       <c r="I10" s="7">
-        <v>38861</v>
+        <v>36002</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>472</v>
+        <v>286</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="M10" s="7">
         <v>123</v>
       </c>
       <c r="N10" s="7">
-        <v>76293</v>
+        <v>71792</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,46 +7259,46 @@
         <v>306</v>
       </c>
       <c r="D11" s="7">
-        <v>284808</v>
+        <v>280260</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>480</v>
       </c>
       <c r="H11" s="7">
         <v>467</v>
       </c>
       <c r="I11" s="7">
-        <v>334423</v>
+        <v>313126</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>481</v>
+        <v>293</v>
       </c>
       <c r="M11" s="7">
         <v>773</v>
       </c>
       <c r="N11" s="7">
-        <v>619231</v>
+        <v>593386</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7289,7 +7310,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7304,7 +7325,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7319,7 +7340,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7342,46 +7363,46 @@
         <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>28260</v>
+        <v>26774</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>485</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
       </c>
       <c r="I13" s="7">
-        <v>27580</v>
+        <v>25724</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>166</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="M13" s="7">
         <v>100</v>
       </c>
       <c r="N13" s="7">
-        <v>55839</v>
+        <v>52498</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>423</v>
+        <v>500</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7393,46 +7414,46 @@
         <v>253</v>
       </c>
       <c r="D14" s="7">
-        <v>293980</v>
+        <v>285783</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>492</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="H14" s="7">
         <v>538</v>
       </c>
       <c r="I14" s="7">
-        <v>400976</v>
+        <v>449994</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="M14" s="7">
         <v>791</v>
       </c>
       <c r="N14" s="7">
-        <v>694957</v>
+        <v>735776</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>433</v>
+        <v>507</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,7 +7465,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7459,7 +7480,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7474,7 +7495,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7497,46 +7518,46 @@
         <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>20033</v>
+        <v>18245</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
       </c>
       <c r="I16" s="7">
-        <v>28005</v>
+        <v>25384</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
       </c>
       <c r="N16" s="7">
-        <v>48039</v>
+        <v>43629</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,46 +7569,46 @@
         <v>246</v>
       </c>
       <c r="D17" s="7">
-        <v>176715</v>
+        <v>160497</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="H17" s="7">
         <v>423</v>
       </c>
       <c r="I17" s="7">
-        <v>203898</v>
+        <v>183272</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="M17" s="7">
         <v>669</v>
       </c>
       <c r="N17" s="7">
-        <v>380612</v>
+        <v>343769</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7599,7 +7620,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7614,7 +7635,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7629,7 +7650,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7652,46 +7673,46 @@
         <v>74</v>
       </c>
       <c r="D19" s="7">
-        <v>40453</v>
+        <v>38642</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
       </c>
       <c r="I19" s="7">
-        <v>29032</v>
+        <v>27066</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="M19" s="7">
         <v>142</v>
       </c>
       <c r="N19" s="7">
-        <v>69485</v>
+        <v>65709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>524</v>
+        <v>336</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7703,46 +7724,46 @@
         <v>297</v>
       </c>
       <c r="D20" s="7">
-        <v>236770</v>
+        <v>230994</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="H20" s="7">
         <v>392</v>
       </c>
       <c r="I20" s="7">
-        <v>246590</v>
+        <v>229990</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="M20" s="7">
         <v>689</v>
       </c>
       <c r="N20" s="7">
-        <v>483360</v>
+        <v>460983</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>534</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7754,7 +7775,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7769,7 +7790,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7784,7 +7805,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7807,46 +7828,46 @@
         <v>64</v>
       </c>
       <c r="D22" s="7">
-        <v>53304</v>
+        <v>50799</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>535</v>
+        <v>58</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>537</v>
+        <v>213</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
       </c>
       <c r="I22" s="7">
-        <v>39208</v>
+        <v>35959</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>488</v>
+        <v>182</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="M22" s="7">
         <v>129</v>
       </c>
       <c r="N22" s="7">
-        <v>92512</v>
+        <v>86759</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>542</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7858,46 +7879,46 @@
         <v>535</v>
       </c>
       <c r="D23" s="7">
-        <v>574450</v>
+        <v>573480</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>543</v>
+        <v>65</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>544</v>
+        <v>221</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H23" s="7">
         <v>895</v>
       </c>
       <c r="I23" s="7">
-        <v>764995</v>
+        <v>813306</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>496</v>
+        <v>191</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M23" s="7">
         <v>1430</v>
       </c>
       <c r="N23" s="7">
-        <v>1339445</v>
+        <v>1386785</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>549</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7909,7 +7930,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7924,7 +7945,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7939,7 +7960,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7962,22 +7983,22 @@
         <v>69</v>
       </c>
       <c r="D25" s="7">
-        <v>54274</v>
+        <v>46712</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>553</v>
+        <v>451</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
       </c>
       <c r="I25" s="7">
-        <v>50932</v>
+        <v>42783</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>554</v>
@@ -7986,13 +8007,13 @@
         <v>555</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>407</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
         <v>146</v>
       </c>
       <c r="N25" s="7">
-        <v>105206</v>
+        <v>89495</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>556</v>
@@ -8001,7 +8022,7 @@
         <v>557</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>285</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,13 +8034,13 @@
         <v>693</v>
       </c>
       <c r="D26" s="7">
-        <v>805154</v>
+        <v>882008</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>559</v>
+        <v>458</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>560</v>
@@ -8028,13 +8049,13 @@
         <v>983</v>
       </c>
       <c r="I26" s="7">
-        <v>814099</v>
+        <v>672068</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>561</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>416</v>
+        <v>329</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>562</v>
@@ -8043,16 +8064,16 @@
         <v>1676</v>
       </c>
       <c r="N26" s="7">
-        <v>1619253</v>
+        <v>1554077</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>563</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>293</v>
+        <v>564</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8064,7 +8085,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8079,7 +8100,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8094,7 +8115,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724459</v>
+        <v>1643572</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8117,46 +8138,46 @@
         <v>405</v>
       </c>
       <c r="D28" s="7">
-        <v>298003</v>
+        <v>282108</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>409</v>
+        <v>566</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H28" s="7">
         <v>522</v>
       </c>
       <c r="I28" s="7">
-        <v>277810</v>
+        <v>253717</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>302</v>
+        <v>569</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="M28" s="7">
         <v>927</v>
       </c>
       <c r="N28" s="7">
-        <v>575813</v>
+        <v>535825</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>568</v>
+        <v>304</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>569</v>
+        <v>181</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8168,46 +8189,46 @@
         <v>2970</v>
       </c>
       <c r="D29" s="7">
-        <v>3086155</v>
+        <v>3176712</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>417</v>
+        <v>572</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H29" s="7">
         <v>4838</v>
       </c>
       <c r="I29" s="7">
-        <v>3525408</v>
+        <v>3404316</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>194</v>
+        <v>342</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>310</v>
+        <v>576</v>
       </c>
       <c r="M29" s="7">
         <v>7808</v>
       </c>
       <c r="N29" s="7">
-        <v>6611562</v>
+        <v>6581028</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>574</v>
+        <v>313</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>576</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8219,7 +8240,7 @@
         <v>3375</v>
       </c>
       <c r="D30" s="7">
-        <v>3384158</v>
+        <v>3458820</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8234,7 +8255,7 @@
         <v>5360</v>
       </c>
       <c r="I30" s="7">
-        <v>3803218</v>
+        <v>3658033</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8249,7 +8270,7 @@
         <v>8735</v>
       </c>
       <c r="N30" s="7">
-        <v>7187375</v>
+        <v>7116853</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
